--- a/biology/Biologie cellulaire et moléculaire/Canalicule_biliaire/Canalicule_biliaire.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Canalicule_biliaire/Canalicule_biliaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les canalicules biliaires intralobulaires sont de fins conduits intercellulaires situés entre les faces ou les bords contigus de 2 ou 3 hépatocytes adjacents. Ces canalicules n’ont pas de paroi propre, ce ne sont que de simples dépressions en gouttière des cellules hépatiques. Avec les branches de l'artère hépatique et de la veine porte, les canalicules forment la triade portale.
 À la périphérie du lobule hépatique, ces canalicules rejoignent le canal biliaire de l’espace de Kiernan par des canaux d’union appelés passages de Hering.
